--- a/resource/filePresupuesto/Presupuesto0012.xlsx
+++ b/resource/filePresupuesto/Presupuesto0012.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t/>
   </si>
   <si>
-    <t>HOSPITAL GENERAL DE 120 CAMAS DE CHONE TIPO COSTA</t>
+    <t>HOSPITAL GENERAL DE 120 CAMAS DE CHONE TIPO COSTA 1</t>
   </si>
   <si>
     <t>CONSTRUDIPRO S.A.</t>
@@ -26,7 +26,13 @@
     <t>TABLA DE CANTIDADES REALES</t>
   </si>
   <si>
-    <t>OFERTA: INGEHISA 006 - REV 002</t>
+    <t>Sr.</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>OFERTA: INGEHISA 0020 - REV 001</t>
   </si>
   <si>
     <t xml:space="preserve">Guayaquil, </t>
@@ -53,16 +59,13 @@
     <t>PRECIO TOTAL</t>
   </si>
   <si>
-    <t>jTextField6</t>
+    <t>jTextField6 1</t>
   </si>
   <si>
     <t>jTextField5</t>
   </si>
   <si>
-    <t>zxzxzxczx</t>
-  </si>
-  <si>
-    <t>mt</t>
+    <t>jTextField6 2</t>
   </si>
   <si>
     <t>SUBTOTAL</t>
@@ -77,13 +80,10 @@
     <t xml:space="preserve">Nota: En esta oferta no se incluye lo siguiente: </t>
   </si>
   <si>
-    <t>vxvxvx</t>
-  </si>
-  <si>
-    <t>cbbcvbcv</t>
-  </si>
-  <si>
-    <t>khjjhj</t>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asdasdasd</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="15.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.86328125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="15.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="12.48828125" customWidth="true" bestFit="true"/>
   </cols>
@@ -298,91 +298,82 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
     <row r="7">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>485.96</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <f>SUM(J8*K8)</f>
-        <v>1943.84</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -396,31 +387,40 @@
         <v>16</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>12.35</v>
+        <v>209.77</v>
       </c>
       <c r="L9" s="6" t="n">
         <f>SUM(J9*K9)</f>
-        <v>61.75</v>
+        <v>419.54</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10" s="4" t="s">
+      <c r="B10" s="3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6">
-        <f>SUM(L8:L9)</f>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>401.29</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <f>SUM(J10*K10)</f>
+        <v>802.58</v>
       </c>
     </row>
     <row r="11">
@@ -437,7 +437,7 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="6">
-        <f>SUM(L10*12.0%)</f>
+        <f>SUM(L9:L10)</f>
       </c>
     </row>
     <row r="12">
@@ -454,28 +454,30 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="6">
-        <f>SUM(L10:L11)</f>
+        <f>SUM(L11*12.0%)</f>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6">
+        <f>SUM(L11:L12)</f>
+      </c>
     </row>
     <row r="14">
-      <c r="B14"/>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
     </row>
     <row r="15">
       <c r="B15"/>
@@ -514,17 +516,17 @@
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:L7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
   </mergeCells>
